--- a/dataset/Column Description.xlsx
+++ b/dataset/Column Description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RajivKhemka\Bits Pilani\Code\Hospital Care\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AIML\Capstone Project Loan Processing\CodeBase\loan-processing\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B71F99-A997-43D1-844A-8BA59FDCEBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7530CA6D-0213-45DE-94F7-C4809B63BDAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{95344D9B-3CFF-4A98-B413-1A039FFEEA5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95344D9B-3CFF-4A98-B413-1A039FFEEA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Age</t>
   </si>
@@ -126,6 +124,12 @@
   </si>
   <si>
     <t>Outcome of the previous marketing campaign</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>numerical</t>
   </si>
 </sst>
 </file>
@@ -477,139 +481,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD3A474-6D0A-49AC-BB1B-31E14729ED67}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
